--- a/app/Licenciatura_em_Ensino_de_Linguas_Bantu.xlsx
+++ b/app/Licenciatura_em_Ensino_de_Linguas_Bantu.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Iida Fermino Chavana</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t>Lize Tembe</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -293,9 +287,6 @@
     <t>Maria AntÓnio Mucuenaze</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110102870729J</t>
   </si>
   <si>
@@ -320,9 +311,6 @@
     <t>Lucia Samuel</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -347,9 +335,6 @@
     <t>Rahema Nau Impera Mucome</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110102639534A</t>
   </si>
   <si>
@@ -374,9 +359,6 @@
     <t>Rael JosÉ Mandlate</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>110100524933N</t>
   </si>
   <si>
@@ -422,9 +404,6 @@
     <t>Joaquina Samboco</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110101323875I</t>
   </si>
   <si>
@@ -449,9 +428,6 @@
     <t xml:space="preserve">Maria Isabel Salegene </t>
   </si>
   <si>
-    <t>Distrito de Cuamba</t>
-  </si>
-  <si>
     <t>010104013248I</t>
   </si>
   <si>
@@ -497,9 +473,6 @@
     <t>Guida Eugenio Mula</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110101502209B</t>
   </si>
   <si>
@@ -524,9 +497,6 @@
     <t>Deolinda Cossa</t>
   </si>
   <si>
-    <t>Distrito de Bilene</t>
-  </si>
-  <si>
     <t>090100857110N</t>
   </si>
   <si>
@@ -572,9 +542,6 @@
     <t>Julia Felix Liquekala</t>
   </si>
   <si>
-    <t>Cidade de Pemba</t>
-  </si>
-  <si>
     <t>020100817911C</t>
   </si>
   <si>
@@ -620,9 +587,6 @@
     <t>Merciana Xai-xai</t>
   </si>
   <si>
-    <t>Distrito de Nicoadala</t>
-  </si>
-  <si>
     <t>041602829843S</t>
   </si>
   <si>
@@ -647,9 +611,6 @@
     <t>Margarida Taera</t>
   </si>
   <si>
-    <t>Distrito de Guro</t>
-  </si>
-  <si>
     <t>+258820226492</t>
   </si>
   <si>
@@ -825,9 +786,6 @@
   </si>
   <si>
     <t>Francelina Atumane</t>
-  </si>
-  <si>
-    <t>Cidade de Nampula</t>
   </si>
   <si>
     <t>030100193150F</t>
@@ -2165,7 +2123,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2181,7 +2139,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2197,7 +2155,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2213,7 +2171,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2229,7 +2187,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2244,9 +2202,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2254,7 +2210,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2265,7 +2221,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2274,7 +2230,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2286,7 +2242,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2294,7 +2250,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2390,7 +2346,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2433,7 +2389,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2760,7 +2716,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2776,7 +2732,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2792,7 +2748,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2808,7 +2764,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2824,7 +2780,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2839,9 +2795,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>133</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2849,7 +2803,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2860,7 +2814,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2869,7 +2823,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2881,7 +2835,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2889,7 +2843,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2985,7 +2939,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3028,7 +2982,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3355,7 +3309,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3371,7 +3325,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3387,7 +3341,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3403,7 +3357,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3419,7 +3373,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3434,9 +3388,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3444,7 +3396,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3455,7 +3407,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3464,7 +3416,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3476,7 +3428,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3484,7 +3436,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3580,7 +3532,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3623,7 +3575,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3950,7 +3902,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3966,7 +3918,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3982,7 +3934,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3998,7 +3950,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4014,7 +3966,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4029,9 +3981,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>149</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4039,7 +3989,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4050,7 +4000,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4059,7 +4009,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4071,7 +4021,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4079,7 +4029,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4175,7 +4125,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4218,7 +4168,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4545,7 +4495,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4561,7 +4511,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4577,7 +4527,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4593,7 +4543,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4609,7 +4559,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4624,9 +4574,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>158</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4634,7 +4582,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4645,7 +4593,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4654,7 +4602,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4666,7 +4614,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4674,7 +4622,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4770,7 +4718,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4813,7 +4761,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5140,7 +5088,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5156,7 +5104,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5172,7 +5120,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5188,7 +5136,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5204,7 +5152,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5219,9 +5167,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5229,7 +5175,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5240,7 +5186,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5249,7 +5195,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5261,7 +5207,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5269,7 +5215,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5365,7 +5311,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5408,7 +5354,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5735,7 +5681,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5751,7 +5697,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5767,7 +5713,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5783,7 +5729,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5799,7 +5745,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5814,9 +5760,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>174</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5824,7 +5768,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5835,7 +5779,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5844,7 +5788,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5856,7 +5800,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5864,7 +5808,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5960,7 +5904,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6003,7 +5947,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6330,7 +6274,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6346,7 +6290,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6362,7 +6306,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6378,7 +6322,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6394,7 +6338,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6409,9 +6353,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6419,7 +6361,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6430,7 +6372,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6439,7 +6381,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6451,7 +6393,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6459,7 +6401,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6555,7 +6497,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6598,7 +6540,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6925,7 +6867,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6941,7 +6883,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6957,7 +6899,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6973,7 +6915,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6989,7 +6931,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7004,9 +6946,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>190</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7014,7 +6954,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7025,7 +6965,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7034,7 +6974,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7046,7 +6986,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7054,7 +6994,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7150,7 +7090,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7193,7 +7133,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7520,7 +7460,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7536,7 +7476,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7552,7 +7492,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7568,7 +7508,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7584,7 +7524,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7599,9 +7539,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>199</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7609,7 +7547,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7620,7 +7558,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7629,7 +7567,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7641,7 +7579,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7745,7 +7683,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7788,7 +7726,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8194,9 +8132,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8204,7 +8140,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8215,7 +8151,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8224,7 +8160,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8236,7 +8172,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8244,7 +8180,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8340,7 +8276,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8383,7 +8319,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8710,7 +8646,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8726,7 +8662,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8917,7 +8853,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9283,7 +9219,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9299,7 +9235,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9315,7 +9251,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9331,7 +9267,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9347,7 +9283,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9362,9 +9298,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9372,7 +9306,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9383,7 +9317,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9392,7 +9326,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9404,7 +9338,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9412,7 +9346,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9508,7 +9442,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9551,7 +9485,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9878,7 +9812,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9894,7 +9828,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9910,7 +9844,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9926,7 +9860,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9942,7 +9876,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9957,9 +9891,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9967,7 +9899,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9978,7 +9910,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9987,7 +9919,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9999,7 +9931,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10007,7 +9939,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10103,7 +10035,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10146,7 +10078,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10473,7 +10405,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10489,7 +10421,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10505,7 +10437,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10521,7 +10453,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10537,7 +10469,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10552,9 +10484,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10562,7 +10492,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10573,7 +10503,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10582,7 +10512,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10594,7 +10524,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10602,7 +10532,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10698,7 +10628,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10741,7 +10671,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11068,7 +10998,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11084,7 +11014,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11100,7 +11030,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11116,7 +11046,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11132,7 +11062,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11147,9 +11077,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>149</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11157,7 +11085,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11168,7 +11096,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11177,7 +11105,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11189,7 +11117,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11197,7 +11125,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11293,7 +11221,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11336,7 +11264,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11663,7 +11591,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11679,7 +11607,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11695,7 +11623,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11711,7 +11639,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11727,7 +11655,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11742,9 +11670,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>149</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11752,7 +11678,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11763,7 +11689,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11772,7 +11698,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11784,7 +11710,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11792,7 +11718,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11888,7 +11814,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11931,7 +11857,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12258,7 +12184,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12274,7 +12200,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12290,7 +12216,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12306,7 +12232,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12322,7 +12248,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12337,9 +12263,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>149</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12347,7 +12271,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12358,7 +12282,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12367,7 +12291,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12379,7 +12303,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12387,7 +12311,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12483,7 +12407,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12526,7 +12450,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12853,7 +12777,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12869,7 +12793,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12885,7 +12809,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12901,7 +12825,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12917,7 +12841,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12932,9 +12856,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12942,7 +12864,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12953,7 +12875,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12962,7 +12884,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12974,7 +12896,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12982,7 +12904,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13078,7 +13000,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13121,7 +13043,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13448,7 +13370,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13464,7 +13386,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13480,7 +13402,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13496,7 +13418,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13512,7 +13434,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13527,9 +13449,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>259</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13537,7 +13457,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13548,7 +13468,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13557,7 +13477,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13569,7 +13489,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13577,7 +13497,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13673,7 +13593,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13716,7 +13636,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14043,7 +13963,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14059,7 +13979,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14075,7 +13995,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14091,7 +14011,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14107,7 +14027,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14122,9 +14042,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14132,7 +14050,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14143,7 +14061,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14152,7 +14070,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14164,7 +14082,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14172,7 +14090,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14268,7 +14186,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14311,7 +14229,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14638,7 +14556,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14654,7 +14572,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14670,7 +14588,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14686,7 +14604,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14702,7 +14620,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14717,9 +14635,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14727,7 +14643,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14738,7 +14654,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14747,7 +14663,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14759,7 +14675,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14767,7 +14683,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14863,7 +14779,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14906,7 +14822,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15233,7 +15149,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15249,7 +15165,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15265,7 +15181,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15281,7 +15197,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15297,7 +15213,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15312,9 +15228,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15322,7 +15236,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15333,7 +15247,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15342,7 +15256,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15354,7 +15268,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15362,7 +15276,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15458,7 +15372,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15501,7 +15415,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15828,7 +15742,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15844,7 +15758,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15860,7 +15774,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15876,7 +15790,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15892,7 +15806,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15907,9 +15821,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15917,7 +15829,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15928,7 +15840,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15937,7 +15849,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15949,7 +15861,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15957,7 +15869,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16053,7 +15965,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16096,7 +16008,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16479,7 +16391,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16495,7 +16407,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16511,7 +16423,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16527,7 +16439,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16543,7 +16455,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16558,9 +16470,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16568,7 +16478,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16579,7 +16489,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16588,7 +16498,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16600,7 +16510,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16608,7 +16518,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16704,7 +16614,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16747,7 +16657,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17074,7 +16984,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17090,7 +17000,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17106,7 +17016,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17122,7 +17032,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17138,7 +17048,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17153,9 +17063,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17163,7 +17071,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17174,7 +17082,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17183,7 +17091,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17195,7 +17103,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17203,7 +17111,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17299,7 +17207,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17342,7 +17250,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17669,7 +17577,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17685,7 +17593,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17701,7 +17609,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17717,7 +17625,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17733,7 +17641,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17748,9 +17656,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17758,7 +17664,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17769,7 +17675,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17778,7 +17684,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17790,7 +17696,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17894,7 +17800,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17937,7 +17843,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18264,7 +18170,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18280,7 +18186,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18296,7 +18202,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18312,7 +18218,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18328,7 +18234,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18343,9 +18249,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18353,7 +18257,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18364,7 +18268,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18373,7 +18277,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18385,7 +18289,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18393,7 +18297,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18489,7 +18393,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18532,7 +18436,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18859,7 +18763,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18875,7 +18779,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18891,7 +18795,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18907,7 +18811,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18923,7 +18827,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18938,9 +18842,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18948,7 +18850,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18959,7 +18861,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18968,7 +18870,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18980,7 +18882,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18988,7 +18890,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19084,7 +18986,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19127,7 +19029,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19454,7 +19356,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19470,7 +19372,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19486,7 +19388,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19502,7 +19404,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19518,7 +19420,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19533,9 +19435,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19543,7 +19443,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19554,7 +19454,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19563,7 +19463,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19575,7 +19475,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19583,7 +19483,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19679,7 +19579,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19722,7 +19622,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
